--- a/Moordesign_wrapper/mooring/Mooring_List.xlsx
+++ b/Moordesign_wrapper/mooring/Mooring_List.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="165" windowWidth="27900" windowHeight="7425" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="165" windowWidth="27900" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mooring_Summary" sheetId="10" r:id="rId1"/>
-    <sheet name="T330_IL" sheetId="4" r:id="rId2"/>
-    <sheet name="T330_CO" sheetId="1" r:id="rId3"/>
-    <sheet name="T330_IL_stats" sheetId="11" r:id="rId4"/>
+    <sheet name="T330_IL" sheetId="4" r:id="rId1"/>
+    <sheet name="T330_CO" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>SBE39 TP (UWA)</t>
   </si>
@@ -87,102 +85,15 @@
     <t>11in plast-UWA</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ADCPs</t>
-  </si>
-  <si>
-    <t>ADCP quantity</t>
-  </si>
-  <si>
-    <t>SBE56</t>
-  </si>
-  <si>
-    <t>SBE39</t>
-  </si>
-  <si>
-    <t>SBE39 w P</t>
-  </si>
-  <si>
-    <t>SBE37</t>
-  </si>
-  <si>
-    <t>SBE Total</t>
-  </si>
-  <si>
-    <t>ADV</t>
-  </si>
-  <si>
-    <t>Wetlabs</t>
-  </si>
-  <si>
-    <t>DualORT</t>
-  </si>
-  <si>
-    <t>T330</t>
-  </si>
-  <si>
-    <t>Traditional</t>
-  </si>
-  <si>
-    <t>75kHz</t>
-  </si>
-  <si>
-    <t>T200</t>
-  </si>
-  <si>
-    <t>T150</t>
-  </si>
-  <si>
-    <t>150kHz QM</t>
-  </si>
-  <si>
-    <t>Wirewalker</t>
-  </si>
-  <si>
-    <t>L150</t>
-  </si>
-  <si>
-    <t>Bottom lander</t>
-  </si>
-  <si>
-    <t>Nortek Signature</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
     <t>Sercal+frame (UW</t>
   </si>
   <si>
-    <t>Sercel Beacon</t>
-  </si>
-  <si>
     <t>Hire, UP</t>
   </si>
   <si>
     <t>3M-WagonW (UWA)</t>
   </si>
   <si>
-    <t>Wire length</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
     <t>1/2 chain SL</t>
   </si>
   <si>
@@ -198,57 +109,6 @@
     <t>Hire</t>
   </si>
   <si>
-    <t>Ordering</t>
-  </si>
-  <si>
-    <t>'shackle_16mmDS'</t>
-  </si>
-  <si>
-    <t>'shackle_16mmBS'</t>
-  </si>
-  <si>
-    <t>'shackle_13mmDS'</t>
-  </si>
-  <si>
-    <t>'shackle_13mmBS'</t>
-  </si>
-  <si>
-    <t>'link_13mm'</t>
-  </si>
-  <si>
-    <t>'link_16mm'</t>
-  </si>
-  <si>
-    <t>'Swivel'</t>
-  </si>
-  <si>
-    <t>'LoadRing'</t>
-  </si>
-  <si>
-    <t>'chainDB'</t>
-  </si>
-  <si>
-    <t>'GalvChain_16mm'</t>
-  </si>
-  <si>
-    <t>'GalvChain_10mm'</t>
-  </si>
-  <si>
-    <t>'Wire95'</t>
-  </si>
-  <si>
-    <t>'Wire5'</t>
-  </si>
-  <si>
-    <t>'Amsteel6'</t>
-  </si>
-  <si>
-    <t>W150</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>16mmDS-L</t>
   </si>
   <si>
@@ -271,24 +131,6 @@
   </si>
   <si>
     <t>Swivel (UWA)</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Max tilt (deg)</t>
-  </si>
-  <si>
-    <t>Ind of max</t>
-  </si>
-  <si>
-    <t>99th prctile tilt</t>
-  </si>
-  <si>
-    <t>Number time steps exceeding 15 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75kHz+40in(AIMS)  </t>
   </si>
 </sst>
 </file>
@@ -315,18 +157,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,11 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,538 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <f>SUM(H2:K2)</f>
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="0">SUM(H3:K3)</f>
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1">
-        <f>SUM(H7:K7)</f>
-        <v>90</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>G7-SUM(G2:G6)</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ref="H8:K8" si="1">H7-SUM(H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <f>M7-SUM(M2:M6)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <f>N7-SUM(N2:N6)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <f>O7-SUM(O2:O6)</f>
-        <v>-1</v>
-      </c>
-      <c r="P8" s="1">
-        <f>P7-SUM(P2:P6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="e">
-        <f>T330_IL!B10+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <f>SUM(B12:E12)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34">
-        <v>147.5</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K26"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -1271,30 +578,30 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>311.23799999999994</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>310.98799999999994</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>310.73799999999994</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,40 +611,40 @@
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>310.48799999999994</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="4">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
         <v>270.48799999999994</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
         <v>270.42799999999994</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>126991</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
         <v>269.92799999999994</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1345,10 +652,10 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>269.16799999999995</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1357,41 +664,41 @@
       <c r="B10">
         <v>122</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>268.95799999999997</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>146.958</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>146.74799999999999</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>145.988</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1400,78 +707,78 @@
       <c r="B14">
         <v>140</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>145.77799999999999</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5.7780000000000005</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
         <v>5.5680000000000005</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3.9280000000000008</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3">
         <v>3.7180000000000009</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
         <v>3.5180000000000007</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3.3580000000000005</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>78</v>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2.6980000000000004</v>
       </c>
       <c r="K21" s="1"/>
@@ -1480,7 +787,7 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>2.4980000000000002</v>
       </c>
     </row>
@@ -1488,40 +795,40 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>2.3480000000000003</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1.5</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2.2490000000000001</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.749</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.65</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,11 +836,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,7 +874,7 @@
       <c r="C2">
         <v>6523</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>38.051999999999964</v>
       </c>
     </row>
@@ -1581,7 +888,7 @@
       <c r="C3">
         <v>3719</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>29.651999999999987</v>
       </c>
     </row>
@@ -1596,7 +903,7 @@
       <c r="C4">
         <v>3721</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>19.651999999999987</v>
       </c>
     </row>
@@ -1611,7 +918,7 @@
       <c r="C5">
         <v>3722</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>9.6519999999999868</v>
       </c>
     </row>
@@ -1619,31 +926,31 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>[1]T330_IL!C8+0.33</f>
         <v>270.178</v>
       </c>
       <c r="C6">
         <v>3724</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>121.62199999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>260</v>
       </c>
       <c r="C7">
         <v>877</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>113.12199999999999</v>
       </c>
     </row>
@@ -1651,14 +958,14 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C8">
         <v>878</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>103.12199999999999</v>
       </c>
     </row>
@@ -1666,14 +973,14 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="C9">
         <v>879</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>93.121999999999986</v>
       </c>
     </row>
@@ -1681,14 +988,14 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="C10">
         <v>6528</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>83.121999999999986</v>
       </c>
     </row>
@@ -1696,14 +1003,14 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="C11">
         <v>9276</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>73.121999999999986</v>
       </c>
     </row>
@@ -1711,14 +1018,14 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="C12">
         <v>711</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>63.121999999999986</v>
       </c>
     </row>
@@ -1726,14 +1033,14 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="C13">
         <v>725</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>53.121999999999986</v>
       </c>
     </row>
@@ -1741,14 +1048,14 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="C14">
         <v>781</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>43.121999999999986</v>
       </c>
     </row>
@@ -1756,14 +1063,14 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="C15">
         <v>3725</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>33.121999999999986</v>
       </c>
     </row>
@@ -1771,14 +1078,14 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="C16">
         <v>3726</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>23.121999999999986</v>
       </c>
     </row>
@@ -1786,14 +1093,14 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="C17">
         <v>3727</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>13.121999999999986</v>
       </c>
     </row>
@@ -1801,25 +1108,25 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="C18">
         <v>3728</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>3.1219999999999857</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
         <v>149.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.6219999999999857</v>
       </c>
     </row>
@@ -1827,32 +1134,32 @@
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f>B18-10</f>
         <v>140</v>
       </c>
       <c r="C20">
         <v>6527</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>134.30199999999999</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f t="shared" ref="B21:B32" si="1">B20-10</f>
         <v>130</v>
       </c>
       <c r="C21">
         <v>3723</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>124.30199999999999</v>
       </c>
     </row>
@@ -1860,14 +1167,14 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C22">
         <v>4456</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>114.30199999999999</v>
       </c>
     </row>
@@ -1875,14 +1182,14 @@
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C23">
         <v>3729</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>104.30199999999999</v>
       </c>
     </row>
@@ -1890,14 +1197,14 @@
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C24">
         <v>3730</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>94.301999999999992</v>
       </c>
     </row>
@@ -1905,14 +1212,14 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C25">
         <v>3731</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>84.301999999999992</v>
       </c>
     </row>
@@ -1920,14 +1227,14 @@
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C26">
         <v>3747</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>74.301999999999992</v>
       </c>
     </row>
@@ -1935,14 +1242,14 @@
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C27">
         <v>3749</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>64.301999999999992</v>
       </c>
     </row>
@@ -1950,14 +1257,14 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C28">
         <v>3750</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>54.302</v>
       </c>
     </row>
@@ -1965,14 +1272,14 @@
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C29">
         <v>3752</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>44.302</v>
       </c>
     </row>
@@ -1980,14 +1287,14 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C30">
         <v>12738</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>34.302</v>
       </c>
     </row>
@@ -1995,14 +1302,14 @@
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C31">
         <v>3753</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>24.302</v>
       </c>
     </row>
@@ -2010,14 +1317,14 @@
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C32">
         <v>4455</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>14.302</v>
       </c>
     </row>
@@ -2025,13 +1332,13 @@
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>15</v>
       </c>
       <c r="C33">
         <v>7403</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>9.3019999999999996</v>
       </c>
     </row>
@@ -2039,25 +1346,25 @@
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <f>B32-10</f>
         <v>10</v>
       </c>
       <c r="C34">
         <v>12739</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>4.3019999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4">
         <v>9.5</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>3.8019999999999996</v>
       </c>
     </row>
@@ -2076,53 +1383,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2">
-        <v>22.626542509075122</v>
-      </c>
-      <c r="C2">
-        <v>626</v>
-      </c>
-      <c r="D2">
-        <v>17.669431324122947</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>